--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="243">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>
@@ -540,6 +540,15 @@
   </si>
   <si>
     <t xml:space="preserve">宝の自動取得(宝の地図が必要)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財宝集め</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -846,10 +855,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -865,10 +874,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -884,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -903,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -922,10 +931,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -941,10 +950,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -960,10 +969,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -979,10 +988,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -998,10 +1007,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -1017,10 +1026,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -1036,10 +1045,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1055,10 +1064,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -1067,7 +1076,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1081,10 +1090,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1100,10 +1109,10 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -1119,10 +1128,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -1138,10 +1147,10 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -1157,10 +1166,10 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -1176,10 +1185,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
         <v>63</v>
@@ -1195,10 +1204,10 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -1214,10 +1223,10 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -1233,10 +1242,10 @@
         <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -1252,10 +1261,10 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>75</v>
@@ -1271,10 +1280,10 @@
         <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
         <v>78</v>
@@ -1290,10 +1299,10 @@
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
         <v>81</v>
@@ -1309,10 +1318,10 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
         <v>84</v>
@@ -1328,10 +1337,10 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
         <v>87</v>
@@ -1347,10 +1356,10 @@
         <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
@@ -1366,10 +1375,10 @@
         <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D30" t="s">
         <v>93</v>
@@ -1385,10 +1394,10 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
         <v>96</v>
@@ -1404,10 +1413,10 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -1416,7 +1425,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
         <v>101</v>
@@ -1430,10 +1439,10 @@
         <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
         <v>104</v>
@@ -1442,7 +1451,7 @@
         <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
         <v>106</v>
@@ -1456,10 +1465,10 @@
         <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
@@ -1475,10 +1484,10 @@
         <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
         <v>112</v>
@@ -1494,10 +1503,10 @@
         <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -1513,10 +1522,10 @@
         <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
         <v>118</v>
@@ -1532,10 +1541,10 @@
         <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D38" t="s">
         <v>121</v>
@@ -1551,10 +1560,10 @@
         <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
         <v>124</v>
@@ -1570,10 +1579,10 @@
         <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -1589,10 +1598,10 @@
         <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D41" t="s">
         <v>130</v>
@@ -1601,7 +1610,7 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G41" t="s">
         <v>132</v>
@@ -1615,10 +1624,10 @@
         <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D42" t="s">
         <v>135</v>
@@ -1634,10 +1643,10 @@
         <v>137</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
         <v>138</v>
@@ -1653,10 +1662,10 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
         <v>141</v>
@@ -1672,10 +1681,10 @@
         <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
         <v>144</v>
@@ -1684,7 +1693,7 @@
         <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -1698,10 +1707,10 @@
         <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
         <v>147</v>
@@ -1717,10 +1726,10 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
         <v>150</v>
@@ -1736,10 +1745,10 @@
         <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -1755,10 +1764,10 @@
         <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
         <v>156</v>
@@ -1774,10 +1783,10 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D50" t="s">
         <v>159</v>
@@ -1793,10 +1802,10 @@
         <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
         <v>162</v>
@@ -1805,7 +1814,7 @@
         <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
         <v>101</v>
@@ -1819,10 +1828,10 @@
         <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D52" t="s">
         <v>165</v>
@@ -1838,10 +1847,10 @@
         <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D53" t="s">
         <v>168</v>
@@ -1857,10 +1866,10 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
         <v>171</v>
@@ -1869,7 +1878,7 @@
         <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
         <v>173</v>
@@ -1877,6 +1886,22 @@
       <c r="H54" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>

--- a/Mod_Korean/Lang/KR/Game/Hobby.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Hobby.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Gardening</t>
